--- a/biology/Zoologie/Gastrodiscoides_hominis/Gastrodiscoides_hominis.xlsx
+++ b/biology/Zoologie/Gastrodiscoides_hominis/Gastrodiscoides_hominis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Gastrodiscoides hominis est une petite douve du singe et du porc qui se fixe sur la paroi du gros intestin de l'homme, donnant la distomatose intestinale indienne.
 </t>
@@ -511,7 +523,9 @@
           <t>Répartition géographique et importance</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un parasite surtout répandu en Inde, mais qui donne généralement des affections bénignes, bien qu'il touche, dans certains foyers, plus de 40 % de la population.
 </t>
@@ -542,7 +556,9 @@
           <t>Morphologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'adulte, long d'à peine 7 à 8 mm, présente un cône antérieur étroit suivi d'un disque élargi muni d'une énorme ventouse ventrale postérieure.
 </t>
@@ -573,7 +589,9 @@
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Fixé sur la muqueuse de cæcum et du côlon ascendant, il pond des œufs très gros, ovales, operculés, de 150 sur 70 microns, qui s'éliminent avec les selles.
 </t>
@@ -604,7 +622,9 @@
           <t>Clinique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette douve a une action pathogène très nette sur la muqueuse du gros intestin, entraînant œdème, congestion, petites érosions ; lorsque les infestations sont massives, ce qui est assez rare, le tableau clinique comprend une première période de diarrhée muqueuse intermittente, puis une phase de diarrhée séro-muqueuse continue, abondante, suivie de déshydratation, aboutissant parfois à la cachexie et à la mort.
 </t>
@@ -635,7 +655,9 @@
           <t>Diagnostic</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Il se fera par découverte des œufs caractéristiques dans les selles ou des adultes expulsés par un lavement salé hypertonique et savonneux.
 </t>
@@ -666,7 +688,9 @@
           <t>Traitement</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Le tétrachloroéthylène ou le niclosamide sont indiqués, mais peuvent être associés avec profit à des lavements savonneux administrés à la sonde qui éliminent beaucoup de vers.
 </t>
